--- a/output/service.lua_ms.json/gate.result.xlsx
+++ b/output/service.lua_ms.json/gate.result.xlsx
@@ -523,12 +523,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TIMESTAMP</t>
+          <t>CALLER</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TIME-3600</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -538,14 +538,14 @@
         <v>10</v>
       </c>
       <c r="F2" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G2" t="n">
-        <v>94.44444444444444</v>
+        <v>96.66666666666667</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>{'start': '2024-04-15 10:00:00.000000', 'end': '2024-04-15 11:00:00.000000'}</t>
+          <t>Game2GateServiceChannel.go:226</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -577,12 +577,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TIMESTAMP</t>
+          <t>CALLER</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TIME-3600</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -599,7 +599,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>{'start': '1970-01-01 00:00:00.000000', 'end': '1970-01-01 01:00:00.000000'}</t>
+          <t>null</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -631,29 +631,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TIMESTAMP</t>
+          <t>LEVEL</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TIME-3600</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="G4" t="n">
-        <v>2.222222222222222</v>
+        <v>96.66666666666667</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>{'start': '2024-04-15 09:00:00.000000', 'end': '2024-04-15 10:00:00.000000'}</t>
+          <t>warning</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -694,20 +694,20 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
       </c>
       <c r="F5" t="n">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>96.66666666666667</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>warning</t>
+          <t>null</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LEVEL</t>
+          <t>MODULE</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -748,20 +748,20 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="G6" t="n">
-        <v>3.333333333333333</v>
+        <v>96.66666666666667</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Game2GateServiceChannel</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -802,20 +802,20 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
       </c>
       <c r="F7" t="n">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="G7" t="n">
-        <v>96.66666666666667</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Game2GateServiceChannel</t>
+          <t>null</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -847,29 +847,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MODULE</t>
+          <t>TIMESTAMP</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>TIME-3600</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="G8" t="n">
-        <v>3.333333333333333</v>
+        <v>94.44444444444444</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>{'start': '2024-04-15 10:00:00.000000', 'end': '2024-04-15 11:00:00.000000'}</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -901,29 +901,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CALLER</t>
+          <t>TIMESTAMP</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>TIME-3600</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
       </c>
       <c r="F9" t="n">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="G9" t="n">
-        <v>96.66666666666667</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Game2GateServiceChannel.go:226</t>
+          <t>{'start': '1970-01-01 00:00:00.000000', 'end': '1970-01-01 01:00:00.000000'}</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -955,29 +955,29 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CALLER</t>
+          <t>TIMESTAMP</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>TIME-3600</t>
         </is>
       </c>
       <c r="D10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="n">
         <v>2</v>
       </c>
-      <c r="E10" t="n">
-        <v>10</v>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
-      </c>
       <c r="G10" t="n">
-        <v>3.333333333333333</v>
+        <v>2.222222222222222</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>{'start': '2024-04-15 09:00:00.000000', 'end': '2024-04-15 10:00:00.000000'}</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1078,10 +1078,10 @@
         <v>10</v>
       </c>
       <c r="F12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G12" t="n">
-        <v>5.555555555555555</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1132,14 +1132,14 @@
         <v>10</v>
       </c>
       <c r="F13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G13" t="n">
-        <v>4.444444444444445</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['Heartbeat ack 0-game0 elapsed 10s']</t>
+          <t>['Heartbeat ack 100-game0 elapsed 10s']</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1186,14 +1186,14 @@
         <v>10</v>
       </c>
       <c r="F14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G14" t="n">
-        <v>4.444444444444445</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['Heartbeat ack 100-game0 elapsed 10s']</t>
+          <t>['Heartbeat ack 0-game0 elapsed 10s']</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1402,14 +1402,14 @@
         <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>2.222222222222222</v>
+        <v>1.111111111111111</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['Heartbeat ack  elapsed 15.982594978s']</t>
+          <t>['Heartbeat ack  elapsed 3.65805738s']</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['Heartbeat ack  elapsed 3.65805738s']</t>
+          <t>['Heartbeat ack  elapsed 4.644114902s']</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['Heartbeat ack  elapsed 4.644114902s']</t>
+          <t>['Heartbeat ack  elapsed 3.214135993s']</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
